--- a/controller/test.xlsx
+++ b/controller/test.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Hello 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="6">
   <si>
     <t>Hello 2</t>
   </si>
@@ -36,7 +33,10 @@
     <t>Test 2</t>
   </si>
   <si>
-    <t>Test 3</t>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>OLD</t>
   </si>
 </sst>
 </file>
@@ -354,33 +354,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
         <v>5</v>
       </c>
     </row>

--- a/controller/test.xlsx
+++ b/controller/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="8">
   <si>
     <t>Hello 2</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>OLD</t>
+  </si>
+  <si>
+    <t>MY DATA</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -354,166 +360,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D14"/>
+      <selection activeCell="C2" sqref="C2:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
